--- a/Excel/034_Indice+Corresp.xlsx
+++ b/Excel/034_Indice+Corresp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Indice Corresp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D799548-71F2-4227-A1FF-53FAD3E8FBF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937565A2-15EC-494C-B765-B04D26960D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rodrigo Costa</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{2EE85E88-D393-4408-AE2B-13D73F70508F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rodrigo Costa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Faz uma contagem na coluna, ex: se colocar para pesquisar o número 4, a resposta vai ser 2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
@@ -110,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +166,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -186,6 +240,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,24 +565,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A096B3F-3F20-4D87-A3FB-7004DAEFE5F0}">
   <dimension ref="C2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.84375" customWidth="1"/>
+    <col min="4" max="4" width="19.15234375" customWidth="1"/>
+    <col min="5" max="5" width="30.84375" customWidth="1"/>
+    <col min="6" max="6" width="18.3828125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.4">
       <c r="H2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:8" ht="26.15" x14ac:dyDescent="0.7">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -536,7 +594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:8" ht="26.15" x14ac:dyDescent="0.7">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -548,7 +606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" ht="18.45" x14ac:dyDescent="0.5">
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
@@ -559,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>5</v>
       </c>
@@ -570,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>5</v>
       </c>
@@ -581,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>5</v>
       </c>
@@ -592,7 +650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>5</v>
       </c>
@@ -603,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>5</v>
       </c>
@@ -614,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>5</v>
       </c>
@@ -625,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>5</v>
       </c>
@@ -636,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -647,7 +705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>5</v>
       </c>
@@ -658,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>15</v>
       </c>
@@ -669,7 +727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>15</v>
       </c>
@@ -680,7 +738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
         <v>15</v>
       </c>
@@ -691,7 +749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -702,7 +760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>19</v>
       </c>
@@ -713,7 +771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
         <v>19</v>
       </c>
@@ -731,43 +789,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A336C0-003C-4732-B650-95E6988755F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A336C0-003C-4732-B650-95E6988755F8}">
   <dimension ref="C2:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.84375" customWidth="1"/>
+    <col min="4" max="4" width="29.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.84375" customWidth="1"/>
+    <col min="6" max="6" width="18.3828125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.4">
       <c r="H2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="3:8" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="6" t="str">
+        <f>INDEX(D9:F23,12,1)</f>
+        <v>Iasmin</v>
+      </c>
       <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="3:8" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="7">
+        <f>MATCH(10,F9:F23,0)</f>
+        <v>8</v>
+      </c>
       <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" ht="18.45" x14ac:dyDescent="0.5">
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
@@ -778,7 +844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>5</v>
       </c>
@@ -789,7 +855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>5</v>
       </c>
@@ -800,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>5</v>
       </c>
@@ -811,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>5</v>
       </c>
@@ -822,7 +888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>5</v>
       </c>
@@ -833,7 +899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>5</v>
       </c>
@@ -844,7 +910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>5</v>
       </c>
@@ -855,7 +921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -866,7 +932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>5</v>
       </c>
@@ -877,7 +943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>15</v>
       </c>
@@ -888,7 +954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>15</v>
       </c>
@@ -899,7 +965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
         <v>15</v>
       </c>
@@ -910,7 +976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -921,7 +987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>19</v>
       </c>
@@ -932,7 +998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
         <v>19</v>
       </c>
@@ -946,5 +1012,6 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>